--- a/choco/converters/validation/results/s2-02/sample_5/wikifonia_1194.xlsx
+++ b/choco/converters/validation/results/s2-02/sample_5/wikifonia_1194.xlsx
@@ -8,6 +8,22 @@
   <definedNames/>
   <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="G11">
+      <text>
+        <t xml:space="preserve">same as G6
+	-Andrea Poltronieri</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,8 +492,8 @@
       <c r="E6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="6" t="b">
-        <v>0</v>
+      <c r="F6" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>16</v>
@@ -583,8 +599,8 @@
       <c r="E11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="6" t="b">
-        <v>0</v>
+      <c r="F11" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="G11" s="6"/>
     </row>
@@ -661,6 +677,7 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>